--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFFD680-4A21-4831-8A89-64D50C31A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F69AA9-D660-45FD-A0C8-268F70071E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2310" yWindow="630" windowWidth="15045" windowHeight="14325" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>ASSAY</t>
   </si>
@@ -207,21 +207,9 @@
     <t>Sample Name</t>
   </si>
   <si>
-    <t>C1_prep</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
-    <t>C1_measured</t>
-  </si>
-  <si>
-    <t>C2_prep</t>
-  </si>
-  <si>
-    <t>C2_measured</t>
-  </si>
-  <si>
     <t>Co1_prep</t>
   </si>
   <si>
@@ -238,6 +226,21 @@
   </si>
   <si>
     <t>Co3_measured</t>
+  </si>
+  <si>
+    <t>CC1_prep</t>
+  </si>
+  <si>
+    <t>CC2_prep</t>
+  </si>
+  <si>
+    <t>CC3_prep</t>
+  </si>
+  <si>
+    <t>CC1_measured</t>
+  </si>
+  <si>
+    <t>CC2_measured</t>
   </si>
 </sst>
 </file>
@@ -765,14 +768,14 @@
       <selection activeCell="M27" sqref="M26:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -780,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -788,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -796,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -804,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -812,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -820,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -828,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -836,62 +839,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -906,50 +909,50 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD63E2E-1F83-4137-B747-F3D0805FCBF5}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2:T7"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="AI4" sqref="AI4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.453125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.54296875" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.1796875" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20.81640625" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="33.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.54296875" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.26953125" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.453125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7265625" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.81640625" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.81640625" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0.453125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>28</v>
       </c>
@@ -1056,268 +1059,268 @@
         <v>62</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE2" s="3">
         <v>1800</v>
       </c>
       <c r="AF2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE3" s="3">
         <v>1800</v>
       </c>
       <c r="AF3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T4" s="1">
         <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE4" s="3">
         <v>1800</v>
       </c>
       <c r="AF4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AG4" t="s">
+        <v>63</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>64</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>68</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T5" s="1">
         <v>10</v>
       </c>
       <c r="U5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="3">
         <v>1800</v>
       </c>
       <c r="AF5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T6" s="1">
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE6" s="3">
         <v>1800</v>
       </c>
       <c r="AF6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="T7" s="1">
         <v>10</v>
       </c>
       <c r="U7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="V7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="X7" s="2">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="Z7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AE7" s="3">
         <v>1800</v>
       </c>
       <c r="AF7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AI7" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F69AA9-D660-45FD-A0C8-268F70071E93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF9257-EEA8-4A4E-AD88-C7A1BFFFBD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -102,9 +102,6 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Source Name</t>
-  </si>
-  <si>
     <t>Parameter [Experiment type]</t>
   </si>
   <si>
@@ -204,9 +201,6 @@
     <t>Term Accession Number (PATO:0001309)</t>
   </si>
   <si>
-    <t>Sample Name</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
@@ -241,6 +235,12 @@
   </si>
   <si>
     <t>CC2_measured</t>
+  </si>
+  <si>
+    <t>Input [Sample Name]</t>
+  </si>
+  <si>
+    <t>Output [Raw Data File]</t>
   </si>
 </sst>
 </file>
@@ -407,7 +407,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:AI7" totalsRowShown="0">
   <autoFilter ref="A1:AI7" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}"/>
   <tableColumns count="35">
-    <tableColumn id="1" xr3:uid="{82007FF3-C202-48DD-8680-9F67DBFE790C}" name="Source Name"/>
+    <tableColumn id="1" xr3:uid="{82007FF3-C202-48DD-8680-9F67DBFE790C}" name="Input [Sample Name]"/>
     <tableColumn id="3" xr3:uid="{893D57CC-AE0E-46FE-BFA4-88F8E89AA6D5}" name="Parameter [Experiment type]" dataDxfId="32"/>
     <tableColumn id="4" xr3:uid="{09310BA3-4E18-42A3-B32B-345615F4E805}" name="Term Source REF ()" dataDxfId="31"/>
     <tableColumn id="5" xr3:uid="{56DC281A-B073-4A63-ACAC-D3DDBDCD2C59}" name="Term Accession Number ()" dataDxfId="30"/>
@@ -441,16 +441,16 @@
     <tableColumn id="33" xr3:uid="{6DF42E80-F9A5-401B-834A-E2F7379E7B3E}" name="Unit  " dataDxfId="2"/>
     <tableColumn id="34" xr3:uid="{41CCAF25-B103-42EE-8D20-98B4069437BB}" name="Term Source REF (PATO:0001309)" dataDxfId="1"/>
     <tableColumn id="35" xr3:uid="{D8052EA9-C021-4702-B430-D1F18504DA71}" name="Term Accession Number (PATO:0001309)" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C5872B07-FE34-4D24-ABA3-E118B3FFDC2C}" name="Sample Name"/>
+    <tableColumn id="2" xr3:uid="{C5872B07-FE34-4D24-ABA3-E118B3FFDC2C}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -488,7 +488,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -594,7 +594,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -736,7 +736,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -768,14 +768,14 @@
       <selection activeCell="M27" sqref="M26:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -783,7 +783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -791,7 +791,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -799,7 +799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -807,7 +807,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -815,7 +815,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -823,7 +823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -831,7 +831,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -839,62 +839,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -909,418 +909,418 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD63E2E-1F83-4137-B747-F3D0805FCBF5}">
   <dimension ref="A1:AI7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="AI4" sqref="AI4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.453125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.453125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.54296875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
     <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
     <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.1796875" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.81640625" hidden="1" customWidth="1"/>
+    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
     <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.54296875" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.26953125" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.453125" hidden="1" customWidth="1"/>
+    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
+    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
     <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7265625" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.81640625" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
+    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
+    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
     <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.81640625" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.453125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
+    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B1" t="s">
         <v>28</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>29</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>30</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>31</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>32</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>33</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>34</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>35</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>36</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>37</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>38</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>39</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>40</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>41</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>42</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>43</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>44</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>45</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>46</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>47</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>48</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>49</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>50</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>52</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>53</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>54</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>55</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>56</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>57</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>58</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>59</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>60</v>
       </c>
-      <c r="AH1" t="s">
-        <v>61</v>
-      </c>
       <c r="AI1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
       <c r="I2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T2" s="1">
         <v>10</v>
       </c>
       <c r="U2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X2" s="2">
         <v>1</v>
       </c>
       <c r="Y2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE2" s="3">
         <v>1800</v>
       </c>
       <c r="AF2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H3">
         <v>1</v>
       </c>
       <c r="I3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T3" s="1">
         <v>10</v>
       </c>
       <c r="U3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X3" s="2">
         <v>1</v>
       </c>
       <c r="Y3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE3" s="3">
         <v>1800</v>
       </c>
       <c r="AF3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H4">
         <v>1</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T4" s="1">
         <v>10</v>
       </c>
       <c r="U4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X4" s="2">
         <v>1</v>
       </c>
       <c r="Y4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE4" s="3">
         <v>1800</v>
       </c>
       <c r="AF4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T5" s="1">
         <v>10</v>
       </c>
       <c r="U5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X5" s="2">
         <v>1</v>
       </c>
       <c r="Y5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z5" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE5" s="3">
         <v>1800</v>
       </c>
       <c r="AF5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>61</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>63</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>63</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>65</v>
       </c>
       <c r="H6">
         <v>1</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T6" s="1">
         <v>10</v>
       </c>
       <c r="U6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X6" s="2">
         <v>1</v>
       </c>
       <c r="Y6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE6" s="3">
         <v>1800</v>
       </c>
       <c r="AF6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI6" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H7">
         <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="T7" s="1">
         <v>10</v>
       </c>
       <c r="U7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="V7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="X7" s="2">
         <v>1</v>
       </c>
       <c r="Y7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="Z7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AE7" s="3">
         <v>1800</v>
       </c>
       <c r="AF7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AG7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AI7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AFF9257-EEA8-4A4E-AD88-C7A1BFFFBD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFECD6-BCC6-49E3-B600-4AFDCFB73EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
   <si>
     <t>ASSAY</t>
   </si>
@@ -102,24 +102,6 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
-    <t>Parameter [Experiment type]</t>
-  </si>
-  <si>
-    <t>Term Source REF ()</t>
-  </si>
-  <si>
-    <t>Term Accession Number ()</t>
-  </si>
-  <si>
-    <t>Parameter [Quantification method]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF () </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number () </t>
-  </si>
-  <si>
     <t>Parameter [technical replicate]</t>
   </si>
   <si>
@@ -129,33 +111,6 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
-    <t>Parameter [Variable modification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1003022)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1003022)</t>
-  </si>
-  <si>
-    <t>Parameter [Fixed modification]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1003021)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1003021)</t>
-  </si>
-  <si>
-    <t>Parameter [sample volume]</t>
-  </si>
-  <si>
-    <t>Term Source REF (DPBO:0010013)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (DPBO:0010013)</t>
-  </si>
-  <si>
     <t>Parameter [injection volume]</t>
   </si>
   <si>
@@ -168,39 +123,6 @@
     <t xml:space="preserve">Term Accession Number ()  </t>
   </si>
   <si>
-    <t>Parameter [Number of injections]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF ()   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number ()   </t>
-  </si>
-  <si>
-    <t>Parameter [instrument model]</t>
-  </si>
-  <si>
-    <t>Term Source REF (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (MS:1000031)</t>
-  </si>
-  <si>
-    <t>Parameter [duration]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Unit  </t>
-  </si>
-  <si>
-    <t>Term Source REF (PATO:0001309)</t>
-  </si>
-  <si>
-    <t>Term Accession Number (PATO:0001309)</t>
-  </si>
-  <si>
     <t>user-specific</t>
   </si>
   <si>
@@ -241,16 +163,17 @@
   </si>
   <si>
     <t>Output [Raw Data File]</t>
+  </si>
+  <si>
+    <t>microliter</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
-    <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -281,49 +204,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="33">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="0.00\ &quot;second&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.00\ &quot;count unit&quot;"/>
-    </dxf>
+  <dxfs count="7">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -335,51 +223,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -404,43 +247,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:AI7" totalsRowShown="0">
-  <autoFilter ref="A1:AI7" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}"/>
-  <tableColumns count="35">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:I7" totalsRowShown="0">
+  <autoFilter ref="A1:I7" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}"/>
+  <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{82007FF3-C202-48DD-8680-9F67DBFE790C}" name="Input [Sample Name]"/>
-    <tableColumn id="3" xr3:uid="{893D57CC-AE0E-46FE-BFA4-88F8E89AA6D5}" name="Parameter [Experiment type]" dataDxfId="32"/>
-    <tableColumn id="4" xr3:uid="{09310BA3-4E18-42A3-B32B-345615F4E805}" name="Term Source REF ()" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{56DC281A-B073-4A63-ACAC-D3DDBDCD2C59}" name="Term Accession Number ()" dataDxfId="30"/>
-    <tableColumn id="6" xr3:uid="{BAD1A746-AF13-4F23-8B16-0EC9A7D1A63C}" name="Parameter [Quantification method]" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{D1171FCE-9AE8-4B5B-9D25-8D2183EFED39}" name="Term Source REF () " dataDxfId="28"/>
-    <tableColumn id="8" xr3:uid="{C7672F1F-931F-48D7-BEE3-D8584C88C94B}" name="Term Accession Number () " dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{FE989BEA-76F5-4C1C-AED3-42B8FDF2344B}" name="Parameter [technical replicate]" dataDxfId="26"/>
-    <tableColumn id="10" xr3:uid="{0466DFAD-77CC-455B-92D9-828B9E54ED9C}" name="Term Source REF (MS:1001808)" dataDxfId="25"/>
-    <tableColumn id="11" xr3:uid="{C296C312-9517-4D88-9584-E14DF2DCA0AC}" name="Term Accession Number (MS:1001808)" dataDxfId="24"/>
-    <tableColumn id="12" xr3:uid="{A37132B2-5F2C-4512-BBA7-AF096F4C21EB}" name="Parameter [Variable modification]" dataDxfId="23"/>
-    <tableColumn id="13" xr3:uid="{F2AEC44F-D7A9-4231-ADEB-439CF852777B}" name="Term Source REF (MS:1003022)" dataDxfId="22"/>
-    <tableColumn id="14" xr3:uid="{6D03B468-2858-4023-A21D-BF61FFD0BAF5}" name="Term Accession Number (MS:1003022)" dataDxfId="21"/>
-    <tableColumn id="15" xr3:uid="{C36EC4EF-11B5-4090-97DA-356CC688A128}" name="Parameter [Fixed modification]" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{A6DF6281-7A46-4CEF-9AE1-48E76C15D885}" name="Term Source REF (MS:1003021)" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{49369E68-A9A6-46B1-A94F-041F52C804CD}" name="Term Accession Number (MS:1003021)" dataDxfId="18"/>
-    <tableColumn id="18" xr3:uid="{AE2398C7-00DF-4CAF-8C44-41C3A2974A0B}" name="Parameter [sample volume]" dataDxfId="17"/>
-    <tableColumn id="19" xr3:uid="{E8513A72-8B42-4DCB-AB5F-78D0A57DEDD9}" name="Term Source REF (DPBO:0010013)" dataDxfId="16"/>
-    <tableColumn id="20" xr3:uid="{B3095E92-79D9-4287-9751-F0565BC11AC8}" name="Term Accession Number (DPBO:0010013)" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{8CB61081-0600-44D2-A13F-ABFEC0CEFA0A}" name="Parameter [injection volume]" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{94CAB0F1-3C20-436B-8D49-0B98E6292E1B}" name="Unit" dataDxfId="13"/>
-    <tableColumn id="23" xr3:uid="{85983182-9B6C-4B03-86E9-9DD495F738D0}" name="Term Source REF ()  " dataDxfId="12"/>
-    <tableColumn id="24" xr3:uid="{C39A33DC-9AD3-47AB-85BA-D14EAB1CDD5E}" name="Term Accession Number ()  " dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{54B7CDCF-8E73-48FF-9F73-0B3F0CA8548C}" name="Parameter [Number of injections]" dataDxfId="10"/>
-    <tableColumn id="26" xr3:uid="{8C20F1BE-5BE2-43F3-8946-836639F54F1C}" name="Unit " dataDxfId="9"/>
-    <tableColumn id="27" xr3:uid="{EA2D876C-7A92-40A8-B750-CC8E88A7A123}" name="Term Source REF ()   " dataDxfId="8"/>
-    <tableColumn id="28" xr3:uid="{569B8342-4EA5-4A89-9D14-F58019DE6619}" name="Term Accession Number ()   " dataDxfId="7"/>
-    <tableColumn id="29" xr3:uid="{23ECA3D2-428C-4489-A6F4-45D6783E73C3}" name="Parameter [instrument model]" dataDxfId="6"/>
-    <tableColumn id="30" xr3:uid="{DCA0844E-E296-43E1-A8B1-CA1D427A7E54}" name="Term Source REF (MS:1000031)" dataDxfId="5"/>
-    <tableColumn id="31" xr3:uid="{90E40569-0AAF-4A53-8838-653855245CFC}" name="Term Accession Number (MS:1000031)" dataDxfId="4"/>
-    <tableColumn id="32" xr3:uid="{79EEE81A-B134-4CF0-B4A1-6A1CC6003524}" name="Parameter [duration]" dataDxfId="3"/>
-    <tableColumn id="33" xr3:uid="{6DF42E80-F9A5-401B-834A-E2F7379E7B3E}" name="Unit  " dataDxfId="2"/>
-    <tableColumn id="34" xr3:uid="{41CCAF25-B103-42EE-8D20-98B4069437BB}" name="Term Source REF (PATO:0001309)" dataDxfId="1"/>
-    <tableColumn id="35" xr3:uid="{D8052EA9-C021-4702-B430-D1F18504DA71}" name="Term Accession Number (PATO:0001309)" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{FE989BEA-76F5-4C1C-AED3-42B8FDF2344B}" name="Parameter [technical replicate]" dataDxfId="6"/>
+    <tableColumn id="10" xr3:uid="{0466DFAD-77CC-455B-92D9-828B9E54ED9C}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
+    <tableColumn id="11" xr3:uid="{C296C312-9517-4D88-9584-E14DF2DCA0AC}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{8CB61081-0600-44D2-A13F-ABFEC0CEFA0A}" name="Parameter [injection volume]" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{94CAB0F1-3C20-436B-8D49-0B98E6292E1B}" name="Unit" dataDxfId="2"/>
+    <tableColumn id="23" xr3:uid="{85983182-9B6C-4B03-86E9-9DD495F738D0}" name="Term Source REF ()  " dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{C39A33DC-9AD3-47AB-85BA-D14EAB1CDD5E}" name="Term Accession Number ()  " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C5872B07-FE34-4D24-ABA3-E118B3FFDC2C}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -768,14 +585,14 @@
       <selection activeCell="M27" sqref="M26:P27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -783,7 +600,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -791,7 +608,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -799,7 +616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -807,7 +624,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -815,7 +632,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -823,7 +640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -831,7 +648,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -839,62 +656,62 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>27</v>
       </c>
@@ -907,54 +724,28 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD63E2E-1F83-4137-B747-F3D0805FCBF5}">
-  <dimension ref="A1:AI7"/>
+  <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="27" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="35.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.42578125" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="27.42578125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="31.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="13" max="13" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="14" max="14" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="16" max="16" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="17" max="17" width="28.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="33" hidden="1" customWidth="1"/>
-    <col min="19" max="19" width="40" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="30" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="7.140625" hidden="1" customWidth="1"/>
-    <col min="22" max="22" width="20.85546875" hidden="1" customWidth="1"/>
-    <col min="23" max="23" width="28" hidden="1" customWidth="1"/>
-    <col min="24" max="24" width="33.85546875" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="7.5703125" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.28515625" hidden="1" customWidth="1"/>
-    <col min="27" max="27" width="28.42578125" hidden="1" customWidth="1"/>
-    <col min="28" max="28" width="31" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="30.7109375" hidden="1" customWidth="1"/>
-    <col min="30" max="30" width="37.85546875" hidden="1" customWidth="1"/>
-    <col min="31" max="31" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="8" hidden="1" customWidth="1"/>
-    <col min="33" max="33" width="32.85546875" hidden="1" customWidth="1"/>
-    <col min="34" max="34" width="0.42578125" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.7265625" customWidth="1"/>
+    <col min="4" max="4" width="37.81640625" customWidth="1"/>
+    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1796875" customWidth="1"/>
+    <col min="7" max="7" width="20.81640625" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="26.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -978,349 +769,163 @@
         <v>34</v>
       </c>
       <c r="I1" t="s">
-        <v>35</v>
-      </c>
-      <c r="J1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2" s="1">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="1">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
         <v>36</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="1">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
         <v>37</v>
       </c>
-      <c r="L1" t="s">
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="1">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
-      <c r="M1" t="s">
-        <v>39</v>
-      </c>
-      <c r="N1" t="s">
-        <v>40</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>35</v>
+      </c>
+      <c r="I7" t="s">
         <v>41</v>
-      </c>
-      <c r="P1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>43</v>
-      </c>
-      <c r="R1" t="s">
-        <v>44</v>
-      </c>
-      <c r="S1" t="s">
-        <v>45</v>
-      </c>
-      <c r="T1" t="s">
-        <v>46</v>
-      </c>
-      <c r="U1" t="s">
-        <v>47</v>
-      </c>
-      <c r="V1" t="s">
-        <v>48</v>
-      </c>
-      <c r="W1" t="s">
-        <v>49</v>
-      </c>
-      <c r="X1" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>51</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>52</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>53</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>56</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>57</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>60</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2" t="s">
-        <v>61</v>
-      </c>
-      <c r="J2" t="s">
-        <v>61</v>
-      </c>
-      <c r="T2" s="1">
-        <v>10</v>
-      </c>
-      <c r="U2" t="s">
-        <v>61</v>
-      </c>
-      <c r="V2" t="s">
-        <v>61</v>
-      </c>
-      <c r="X2" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE2" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG2" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3" t="s">
-        <v>61</v>
-      </c>
-      <c r="J3" t="s">
-        <v>61</v>
-      </c>
-      <c r="T3" s="1">
-        <v>10</v>
-      </c>
-      <c r="U3" t="s">
-        <v>61</v>
-      </c>
-      <c r="V3" t="s">
-        <v>61</v>
-      </c>
-      <c r="X3" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE3" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG3" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4" t="s">
-        <v>61</v>
-      </c>
-      <c r="J4" t="s">
-        <v>61</v>
-      </c>
-      <c r="T4" s="1">
-        <v>10</v>
-      </c>
-      <c r="U4" t="s">
-        <v>61</v>
-      </c>
-      <c r="V4" t="s">
-        <v>61</v>
-      </c>
-      <c r="X4" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y4" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE4" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5" t="s">
-        <v>61</v>
-      </c>
-      <c r="J5" t="s">
-        <v>61</v>
-      </c>
-      <c r="T5" s="1">
-        <v>10</v>
-      </c>
-      <c r="U5" t="s">
-        <v>61</v>
-      </c>
-      <c r="V5" t="s">
-        <v>61</v>
-      </c>
-      <c r="X5" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE5" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG5" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI5" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6" t="s">
-        <v>61</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="T6" s="1">
-        <v>10</v>
-      </c>
-      <c r="U6" t="s">
-        <v>61</v>
-      </c>
-      <c r="V6" t="s">
-        <v>61</v>
-      </c>
-      <c r="X6" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE6" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG6" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>64</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7" t="s">
-        <v>61</v>
-      </c>
-      <c r="J7" t="s">
-        <v>61</v>
-      </c>
-      <c r="T7" s="1">
-        <v>10</v>
-      </c>
-      <c r="U7" t="s">
-        <v>61</v>
-      </c>
-      <c r="V7" t="s">
-        <v>61</v>
-      </c>
-      <c r="X7" s="2">
-        <v>1</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>61</v>
-      </c>
-      <c r="Z7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AE7" s="3">
-        <v>1800</v>
-      </c>
-      <c r="AF7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AG7" t="s">
-        <v>61</v>
-      </c>
-      <c r="AI7" t="s">
-        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1DFECD6-BCC6-49E3-B600-4AFDCFB73EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7660A90-04C2-42E2-A46F-B9FD23DD4B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="930" yWindow="1540" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
   <si>
     <t>ASSAY</t>
   </si>
@@ -111,21 +111,9 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
-    <t>Parameter [injection volume]</t>
-  </si>
-  <si>
     <t>Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Term Source REF ()  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number ()  </t>
-  </si>
-  <si>
-    <t>user-specific</t>
-  </si>
-  <si>
     <t>Co1_prep</t>
   </si>
   <si>
@@ -166,6 +154,21 @@
   </si>
   <si>
     <t>microliter</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>Parameter [injection volume setting]</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Source REF (AFR:0001577)  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Term Accession Number (AFR:0001577)  </t>
   </si>
 </sst>
 </file>
@@ -175,10 +178,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -201,14 +212,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="7">
@@ -254,10 +268,10 @@
     <tableColumn id="9" xr3:uid="{FE989BEA-76F5-4C1C-AED3-42B8FDF2344B}" name="Parameter [technical replicate]" dataDxfId="6"/>
     <tableColumn id="10" xr3:uid="{0466DFAD-77CC-455B-92D9-828B9E54ED9C}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
     <tableColumn id="11" xr3:uid="{C296C312-9517-4D88-9584-E14DF2DCA0AC}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{8CB61081-0600-44D2-A13F-ABFEC0CEFA0A}" name="Parameter [injection volume]" dataDxfId="3"/>
+    <tableColumn id="21" xr3:uid="{8CB61081-0600-44D2-A13F-ABFEC0CEFA0A}" name="Parameter [injection volume setting]" dataDxfId="3"/>
     <tableColumn id="22" xr3:uid="{94CAB0F1-3C20-436B-8D49-0B98E6292E1B}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{85983182-9B6C-4B03-86E9-9DD495F738D0}" name="Term Source REF ()  " dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{C39A33DC-9AD3-47AB-85BA-D14EAB1CDD5E}" name="Term Accession Number ()  " dataDxfId="0"/>
+    <tableColumn id="23" xr3:uid="{85983182-9B6C-4B03-86E9-9DD495F738D0}" name="Term Source REF (AFR:0001577)  " dataDxfId="1"/>
+    <tableColumn id="24" xr3:uid="{C39A33DC-9AD3-47AB-85BA-D14EAB1CDD5E}" name="Term Accession Number (AFR:0001577)  " dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{C5872B07-FE34-4D24-ABA3-E118B3FFDC2C}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -724,10 +738,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD63E2E-1F83-4137-B747-F3D0805FCBF5}">
-  <dimension ref="A1:AG7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -745,7 +759,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B1" t="s">
         <v>28</v>
@@ -757,181 +771,171 @@
         <v>30</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>31</v>
       </c>
-      <c r="F1" t="s">
-        <v>32</v>
-      </c>
       <c r="G1" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="H1" t="s">
-        <v>34</v>
+        <v>50</v>
       </c>
       <c r="I1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B2">
         <v>1</v>
       </c>
-      <c r="C2" t="s">
-        <v>35</v>
-      </c>
-      <c r="D2" t="s">
-        <v>35</v>
-      </c>
       <c r="E2" s="1">
         <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D3" t="s">
-        <v>35</v>
-      </c>
       <c r="E3" s="1">
         <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G3" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
       <c r="E4" s="1">
         <v>10</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" t="s">
-        <v>35</v>
-      </c>
       <c r="E5" s="1">
         <v>10</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="I5" t="s">
         <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D6" t="s">
-        <v>35</v>
-      </c>
       <c r="E6" s="1">
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B7">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" t="s">
-        <v>35</v>
-      </c>
       <c r="E7" s="1">
         <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>35</v>
+        <v>46</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="H2" r:id="rId1" xr:uid="{0CC598DB-8391-441C-88F8-ED18DFFFB910}"/>
+    <hyperlink ref="H7" r:id="rId2" xr:uid="{CEA344DE-B499-49AE-A8EA-456FF531472A}"/>
+    <hyperlink ref="H6" r:id="rId3" xr:uid="{3B7D3B79-9352-4737-9253-F9EACF46BA9A}"/>
+    <hyperlink ref="H4" r:id="rId4" xr:uid="{DD294269-CBFF-43E2-9053-490AAB9A7F1F}"/>
+    <hyperlink ref="H5" r:id="rId5" xr:uid="{EE69E281-5627-4139-8DB6-F632F567B1A3}"/>
+    <hyperlink ref="H3" r:id="rId6" xr:uid="{F94842F4-E05C-4317-B107-19A4A8E9F10D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -1,22 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7660A90-04C2-42E2-A46F-B9FD23DD4B7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="930" yWindow="1540" windowWidth="18000" windowHeight="11170" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
-    <sheet name="MS" sheetId="2" r:id="rId2"/>
+    <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
+    <sheet sheetId="2" name="MS" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
   <si>
     <t>ASSAY</t>
   </si>
@@ -102,6 +98,9 @@
     <t>Assay Person Roles Term Source REF</t>
   </si>
   <si>
+    <t>Input [Sample Name]</t>
+  </si>
+  <si>
     <t>Parameter [technical replicate]</t>
   </si>
   <si>
@@ -111,88 +110,86 @@
     <t>Term Accession Number (MS:1001808)</t>
   </si>
   <si>
+    <t>Parameter [injection volume setting]</t>
+  </si>
+  <si>
     <t>Unit</t>
   </si>
   <si>
+    <t>Term Source REF (AFR:0001577)</t>
+  </si>
+  <si>
+    <t>Term Accession Number (AFR:0001577)</t>
+  </si>
+  <si>
+    <t>Output [Raw Data File]</t>
+  </si>
+  <si>
+    <t>CC1_prep</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>microliter</t>
+  </si>
+  <si>
+    <t>UO</t>
+  </si>
+  <si>
+    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
+  </si>
+  <si>
+    <t>CC1_measured</t>
+  </si>
+  <si>
+    <t>CC2_prep</t>
+  </si>
+  <si>
+    <t>CC2_measured</t>
+  </si>
+  <si>
+    <t>CC3_prep</t>
+  </si>
+  <si>
+    <t>CC3_measured</t>
+  </si>
+  <si>
     <t>Co1_prep</t>
   </si>
   <si>
+    <t>Co1_measured</t>
+  </si>
+  <si>
     <t>Co2_prep</t>
   </si>
   <si>
+    <t>Co2_measured</t>
+  </si>
+  <si>
     <t>Co3_prep</t>
   </si>
   <si>
-    <t>Co1_measured</t>
-  </si>
-  <si>
-    <t>Co2_measured</t>
-  </si>
-  <si>
     <t>Co3_measured</t>
-  </si>
-  <si>
-    <t>CC1_prep</t>
-  </si>
-  <si>
-    <t>CC2_prep</t>
-  </si>
-  <si>
-    <t>CC3_prep</t>
-  </si>
-  <si>
-    <t>CC1_measured</t>
-  </si>
-  <si>
-    <t>CC2_measured</t>
-  </si>
-  <si>
-    <t>Input [Sample Name]</t>
-  </si>
-  <si>
-    <t>Output [Raw Data File]</t>
-  </si>
-  <si>
-    <t>microliter</t>
-  </si>
-  <si>
-    <t>UO</t>
-  </si>
-  <si>
-    <t>Parameter [injection volume setting]</t>
-  </si>
-  <si>
-    <t>http://purl.obolibrary.org/obo/UO_0000101</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Source REF (AFR:0001577)  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Term Accession Number (AFR:0001577)  </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-  </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -212,42 +209,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.00\ &quot;microliter&quot;"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -261,27 +232,37 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}" name="annotationTableLuckyRobin60" displayName="annotationTableLuckyRobin60" ref="A1:I7" totalsRowShown="0">
-  <autoFilter ref="A1:I7" xr:uid="{6A98AB4E-6AA9-4106-8FE8-3D48DC91D977}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:I7" totalsRowShown="1" headerRowCount="1">
+  <autoFilter ref="A1:I7">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+    <filterColumn colId="5" hiddenButton="1"/>
+    <filterColumn colId="6" hiddenButton="1"/>
+    <filterColumn colId="7" hiddenButton="1"/>
+    <filterColumn colId="8" hiddenButton="1"/>
+  </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{82007FF3-C202-48DD-8680-9F67DBFE790C}" name="Input [Sample Name]"/>
-    <tableColumn id="9" xr3:uid="{FE989BEA-76F5-4C1C-AED3-42B8FDF2344B}" name="Parameter [technical replicate]" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{0466DFAD-77CC-455B-92D9-828B9E54ED9C}" name="Term Source REF (MS:1001808)" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{C296C312-9517-4D88-9584-E14DF2DCA0AC}" name="Term Accession Number (MS:1001808)" dataDxfId="4"/>
-    <tableColumn id="21" xr3:uid="{8CB61081-0600-44D2-A13F-ABFEC0CEFA0A}" name="Parameter [injection volume setting]" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{94CAB0F1-3C20-436B-8D49-0B98E6292E1B}" name="Unit" dataDxfId="2"/>
-    <tableColumn id="23" xr3:uid="{85983182-9B6C-4B03-86E9-9DD495F738D0}" name="Term Source REF (AFR:0001577)  " dataDxfId="1"/>
-    <tableColumn id="24" xr3:uid="{C39A33DC-9AD3-47AB-85BA-D14EAB1CDD5E}" name="Term Accession Number (AFR:0001577)  " dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{C5872B07-FE34-4D24-ABA3-E118B3FFDC2C}" name="Output [Raw Data File]"/>
+    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" name="Parameter [technical replicate]" totalsRowFunction="none"/>
+    <tableColumn id="3" name="Term Source REF (MS:1001808)" totalsRowFunction="none"/>
+    <tableColumn id="4" name="Term Accession Number (MS:1001808)" totalsRowFunction="none"/>
+    <tableColumn id="5" name="Parameter [injection volume setting]" totalsRowFunction="none"/>
+    <tableColumn id="6" name="Unit" totalsRowFunction="none"/>
+    <tableColumn id="7" name="Term Source REF (AFR:0001577)" totalsRowFunction="none"/>
+    <tableColumn id="8" name="Term Accession Number (AFR:0001577)" totalsRowFunction="none"/>
+    <tableColumn id="9" name="Output [Raw Data File]" totalsRowFunction="none"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -319,7 +300,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -425,7 +406,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -567,46 +548,23 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
-<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
-<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
-  <wetp:taskpane dockstate="right" visibility="0" width="350" row="2">
-    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-  </wetp:taskpane>
-</wetp:taskpanes>
-</file>
-
-<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
-<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{CADB063F-A1FF-4194-ACA9-1FA38AF752CC}">
-  <we:reference id="5d6f5462-3401-48ec-9406-d12882e9ad83" version="0.8.0.0" store="\\DESKTOP-GGDHOH8\nfdi_manifest_User" storeType="Filesystem"/>
-  <we:alternateReferences/>
-  <we:properties/>
-  <we:bindings/>
-  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
-</we:webextension>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M26:P27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -614,7 +572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -622,7 +580,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -630,7 +588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -638,7 +596,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -646,7 +604,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -654,7 +612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -662,7 +620,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>14</v>
       </c>
@@ -670,272 +628,285 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DD63E2E-1F83-4137-B747-F3D0805FCBF5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I7"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.7265625" customWidth="1"/>
-    <col min="4" max="4" width="37.81640625" customWidth="1"/>
-    <col min="5" max="5" width="30" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.1796875" customWidth="1"/>
-    <col min="7" max="7" width="20.81640625" customWidth="1"/>
-    <col min="8" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="26.90625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" t="s">
+        <v>42</v>
+      </c>
+      <c r="H2" t="s">
         <v>43</v>
       </c>
-      <c r="B1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
+      <c r="I2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" t="s">
+        <v>41</v>
+      </c>
+      <c r="G3" t="s">
+        <v>42</v>
+      </c>
+      <c r="H3" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" t="s">
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G4" t="s">
+        <v>42</v>
+      </c>
+      <c r="H4" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>49</v>
       </c>
-      <c r="H1" t="s">
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" t="s">
         <v>50</v>
       </c>
-      <c r="I1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
         <v>38</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
-      <c r="G2" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I2" t="s">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="E3" s="1">
-        <v>10</v>
-      </c>
-      <c r="F3" t="s">
-        <v>45</v>
-      </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
+      <c r="H6" t="s">
+        <v>43</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
       </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>10</v>
-      </c>
-      <c r="F4" t="s">
-        <v>45</v>
-      </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1">
-        <v>10</v>
-      </c>
-      <c r="F5" t="s">
-        <v>45</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="1">
-        <v>10</v>
-      </c>
-      <c r="F6" t="s">
-        <v>45</v>
-      </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="1">
-        <v>10</v>
-      </c>
-      <c r="F7" t="s">
-        <v>45</v>
-      </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>48</v>
+      <c r="H7" t="s">
+        <v>43</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{0CC598DB-8391-441C-88F8-ED18DFFFB910}"/>
-    <hyperlink ref="H7" r:id="rId2" xr:uid="{CEA344DE-B499-49AE-A8EA-456FF531472A}"/>
-    <hyperlink ref="H6" r:id="rId3" xr:uid="{3B7D3B79-9352-4737-9253-F9EACF46BA9A}"/>
-    <hyperlink ref="H4" r:id="rId4" xr:uid="{DD294269-CBFF-43E2-9053-490AAB9A7F1F}"/>
-    <hyperlink ref="H5" r:id="rId5" xr:uid="{EE69E281-5627-4139-8DB6-F632F567B1A3}"/>
-    <hyperlink ref="H3" r:id="rId6" xr:uid="{F94842F4-E05C-4317-B107-19A4A8E9F10D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>
--- a/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
+++ b/tests/ARCtrl.Querymodel.Tests/TestObjects/TestArc/assays/MS_Cold/isa.assay.xlsx
@@ -1,18 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FF5F7B9-12FB-4536-A44D-30E1B62529F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="isa_assay" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="MS" state="visible" r:id="rId5"/>
+    <sheet name="isa_assay" sheetId="1" r:id="rId1"/>
+    <sheet name="MS_Cold" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="56">
   <si>
     <t>ASSAY</t>
   </si>
@@ -177,19 +181,22 @@
   </si>
   <si>
     <t>Co3_measured</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-      <sz val="11"/>
-      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
@@ -216,7 +223,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -232,8 +239,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" name="annotationTable" displayName="annotationTable" ref="A1:I7" totalsRowShown="1" headerRowCount="1">
-  <autoFilter ref="A1:I7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="annotationTable" displayName="annotationTable" ref="A1:I7">
+  <autoFilter ref="A1:I7" xr:uid="{00000000-0009-0000-0100-000001000000}">
     <filterColumn colId="0" hiddenButton="1"/>
     <filterColumn colId="1" hiddenButton="1"/>
     <filterColumn colId="2" hiddenButton="1"/>
@@ -245,15 +252,15 @@
     <filterColumn colId="8" hiddenButton="1"/>
   </autoFilter>
   <tableColumns count="9">
-    <tableColumn id="1" name="Input [Sample Name]" totalsRowLabel="Total"/>
-    <tableColumn id="2" name="Parameter [technical replicate]" totalsRowFunction="none"/>
-    <tableColumn id="3" name="Term Source REF (MS:1001808)" totalsRowFunction="none"/>
-    <tableColumn id="4" name="Term Accession Number (MS:1001808)" totalsRowFunction="none"/>
-    <tableColumn id="5" name="Parameter [injection volume setting]" totalsRowFunction="none"/>
-    <tableColumn id="6" name="Unit" totalsRowFunction="none"/>
-    <tableColumn id="7" name="Term Source REF (AFR:0001577)" totalsRowFunction="none"/>
-    <tableColumn id="8" name="Term Accession Number (AFR:0001577)" totalsRowFunction="none"/>
-    <tableColumn id="9" name="Output [Raw Data File]" totalsRowFunction="none"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Input [Sample Name]" totalsRowLabel="Total"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Parameter [technical replicate]"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Term Source REF (MS:1001808)"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Term Accession Number (MS:1001808)"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Parameter [injection volume setting]"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Unit"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Term Source REF (AFR:0001577)"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Term Accession Number (AFR:0001577)"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Output [Raw Data File]"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -555,11 +562,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -628,37 +638,37 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -690,14 +700,19 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:I45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -902,9 +917,14 @@
         <v>54</v>
       </c>
     </row>
+    <row r="45" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
